--- a/data/z-Score.xlsx
+++ b/data/z-Score.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mqb\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12506\PycharmProjects\数据分析\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B57CB4-DE97-4EB8-A0BF-5A6203FED842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52E8BA9-B2D3-488E-91B4-ECCFF7A5343A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C28FDDB-1949-4E7F-A583-DD266244896D}"/>
   </bookViews>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD6647A-E687-41E2-8AC4-86C1F70C1508}">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>63</v>
